--- a/cpu_states.xlsx
+++ b/cpu_states.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wwcpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F66F624-B269-41E8-9F4B-5D29808F2896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F459EA-00C0-4415-9671-DDD4A0A32949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{49DCB9A7-1EE1-4A25-9D11-06E7B318AF4A}"/>
   </bookViews>
@@ -311,7 +311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -403,17 +403,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -425,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,6 +457,38 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -469,22 +512,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -803,25 +830,25 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -864,7 +891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
@@ -881,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -898,7 +925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -915,7 +942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -930,7 +957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -947,7 +974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -960,7 +987,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
@@ -981,7 +1008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
@@ -998,7 +1025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
@@ -1022,7 +1049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
@@ -1040,7 +1067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
@@ -1052,7 +1079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1062,7 +1089,7 @@
       <c r="F14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
@@ -1083,177 +1110,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B15FA0B-49CF-4C55-9F88-1B4CFF04757E}">
-  <dimension ref="A1:AJ36"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="36" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" style="18" customWidth="1"/>
-    <col min="3" max="19" width="4.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.77734375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="36" width="5.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="13" customWidth="1"/>
+    <col min="3" max="19" width="4.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="35" width="5.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="5.7109375" style="13" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="8" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="10"/>
-    </row>
-    <row r="2" spans="1:36" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="12" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="22"/>
+    </row>
+    <row r="2" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="7" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="T3" s="13">
+        <v>1</v>
+      </c>
+      <c r="U3" s="13">
+        <v>1</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="17"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="Y4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="17"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13">
+        <v>1</v>
+      </c>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="17"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1">
@@ -1265,12 +1346,28 @@
       <c r="R6" s="1">
         <v>1</v>
       </c>
-      <c r="AD6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="17"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1">
@@ -1285,12 +1382,28 @@
       <c r="S7" s="1">
         <v>1</v>
       </c>
-      <c r="AD7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="17"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1">
@@ -1305,12 +1418,28 @@
       <c r="S8" s="1">
         <v>1</v>
       </c>
-      <c r="AD8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="17"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1">
@@ -1319,12 +1448,28 @@
       <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="AE9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="17"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="1">
@@ -1339,12 +1484,28 @@
       <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="T10" s="13">
+        <v>1</v>
+      </c>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="17"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="1">
@@ -1353,12 +1514,28 @@
       <c r="M11" s="1">
         <v>1</v>
       </c>
-      <c r="AF11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="17"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="1">
@@ -1370,12 +1547,28 @@
       <c r="N12" s="1">
         <v>1</v>
       </c>
-      <c r="T12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="T12" s="13">
+        <v>1</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="17"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="1">
@@ -1384,12 +1577,28 @@
       <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="T13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="T13" s="13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="17"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="1">
@@ -1401,12 +1610,28 @@
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="Z14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="17"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="1">
@@ -1418,12 +1643,28 @@
       <c r="N15" s="1">
         <v>1</v>
       </c>
-      <c r="U15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="T15" s="13"/>
+      <c r="U15" s="13">
+        <v>1</v>
+      </c>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="17"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="1">
@@ -1438,12 +1679,28 @@
       <c r="P16" s="1">
         <v>1</v>
       </c>
-      <c r="U16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="T16" s="13"/>
+      <c r="U16" s="13">
+        <v>1</v>
+      </c>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="17"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="1">
@@ -1452,15 +1709,30 @@
       <c r="M17" s="1">
         <v>1</v>
       </c>
-      <c r="U17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="T17" s="13"/>
+      <c r="U17" s="13">
+        <v>1</v>
+      </c>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="17"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="1">
@@ -1478,15 +1750,30 @@
       <c r="R18" s="1">
         <v>1</v>
       </c>
-      <c r="AB18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="17"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1">
@@ -1498,12 +1785,28 @@
       <c r="R19" s="1">
         <v>1</v>
       </c>
-      <c r="AB19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="17"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1">
@@ -1518,15 +1821,30 @@
       <c r="S20" s="1">
         <v>1</v>
       </c>
-      <c r="AB20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="17"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1">
@@ -1541,15 +1859,30 @@
       <c r="S21" s="1">
         <v>1</v>
       </c>
-      <c r="AA21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="17"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1">
@@ -1561,12 +1894,28 @@
       <c r="Q22" s="1">
         <v>1</v>
       </c>
-      <c r="AA22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="17"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="1">
@@ -1584,12 +1933,28 @@
       <c r="R23" s="1">
         <v>1</v>
       </c>
-      <c r="AB23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="17"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1">
@@ -1601,12 +1966,28 @@
       <c r="R24" s="1">
         <v>1</v>
       </c>
-      <c r="AH24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="17"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1">
@@ -1621,12 +2002,28 @@
       <c r="S25" s="1">
         <v>1</v>
       </c>
-      <c r="AH25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="17"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1">
@@ -1641,12 +2038,28 @@
       <c r="S26" s="1">
         <v>1</v>
       </c>
-      <c r="AH26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="17"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="1">
@@ -1658,12 +2071,28 @@
       <c r="Q27" s="1">
         <v>1</v>
       </c>
-      <c r="AH27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="17"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="1">
@@ -1675,12 +2104,28 @@
       <c r="N28" s="1">
         <v>1</v>
       </c>
-      <c r="AE28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="17"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="1">
@@ -1695,12 +2140,28 @@
       <c r="P29" s="1">
         <v>1</v>
       </c>
-      <c r="AH29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="17"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="1">
@@ -1709,12 +2170,28 @@
       <c r="M30" s="1">
         <v>1</v>
       </c>
-      <c r="T30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="T30" s="13">
+        <v>1</v>
+      </c>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="17"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="1">
@@ -1726,15 +2203,36 @@
       <c r="O31" s="1">
         <v>1</v>
       </c>
-      <c r="AB31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="17"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="1">
@@ -1746,29 +2244,61 @@
       <c r="N32" s="1">
         <v>1</v>
       </c>
-      <c r="AI32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="17"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="13">
         <v>1</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
       </c>
-      <c r="X33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="17"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="13">
         <v>1</v>
       </c>
       <c r="K34" s="1">
@@ -1777,35 +2307,171 @@
       <c r="N34" s="1">
         <v>1</v>
       </c>
-      <c r="X34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="17"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="13">
         <v>1</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
       </c>
-      <c r="W35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13">
+        <v>1</v>
+      </c>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="17"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="13">
         <v>1</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12">
+        <f>COUNT(T3:T36)</f>
+        <v>5</v>
+      </c>
+      <c r="U37" s="12">
+        <f t="shared" ref="U37:AJ37" si="0">COUNT(U3:U36)</f>
+        <v>4</v>
+      </c>
+      <c r="V37" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W37" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X37" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y37" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z37" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AA37" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB37" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AC37" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AD37" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE37" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF37" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG37" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH37" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AI37" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="12">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1816,7 +2482,8 @@
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="58" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cpu_states.xlsx
+++ b/cpu_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wwcpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F459EA-00C0-4415-9671-DDD4A0A32949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED832C-6C19-4BFE-A751-C7A22FD00834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{49DCB9A7-1EE1-4A25-9D11-06E7B318AF4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49DCB9A7-1EE1-4A25-9D11-06E7B318AF4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>S0</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>S8</t>
-  </si>
-  <si>
-    <t>Enable RAM write</t>
   </si>
   <si>
     <t>IN</t>
@@ -272,6 +269,22 @@
   </si>
   <si>
     <t>state</t>
+  </si>
+  <si>
+    <t>MAR_SRC</t>
+  </si>
+  <si>
+    <t>ALU_SRC</t>
+  </si>
+  <si>
+    <t>MAR_SRC = DATA</t>
+  </si>
+  <si>
+    <t>MAR_SRC = PC</t>
+  </si>
+  <si>
+    <t>Enable RAM write
+MAR_SRC = PC</t>
   </si>
 </sst>
 </file>
@@ -436,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,8 +504,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,6 +530,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -829,26 +851,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1623EA-A651-44FE-B5F6-3CCC41DCF92C}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,15 +907,15 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -908,9 +930,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -925,9 +947,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -942,9 +964,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -957,9 +979,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -971,12 +993,12 @@
       <c r="H7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -987,9 +1009,9 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -1005,17 +1027,20 @@
         <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1024,16 +1049,19 @@
       <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
@@ -1041,65 +1069,67 @@
       <c r="H11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F12" s="3"/>
       <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3"/>
       <c r="J13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1113,30 +1143,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="36" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="37" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R31" sqref="R31"/>
+      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="13" customWidth="1"/>
-    <col min="3" max="19" width="4.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="35" width="5.7109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="5.7109375" style="13" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="16"/>
+    <col min="1" max="1" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="13" customWidth="1"/>
+    <col min="3" max="19" width="4.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="5.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="36" width="5.6640625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="5.6640625" style="13" customWidth="1"/>
+    <col min="38" max="38" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1147,7 +1180,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -1158,112 +1191,115 @@
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="10"/>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="24"/>
+    </row>
+    <row r="2" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="22"/>
-    </row>
-    <row r="2" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="25" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>73</v>
+      <c r="U2" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>74</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AJ2" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="T3" s="13">
-        <v>1</v>
-      </c>
       <c r="U3" s="13">
         <v>1</v>
       </c>
-      <c r="V3" s="13"/>
+      <c r="V3" s="13">
+        <v>1</v>
+      </c>
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
@@ -1277,14 +1313,14 @@
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
-      <c r="AJ3" s="17"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="17"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="13"/>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
@@ -1302,19 +1338,19 @@
       <c r="AG4" s="13"/>
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
-      <c r="AJ4" s="17"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="17"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="13"/>
       <c r="U5" s="13"/>
-      <c r="V5" s="13">
-        <v>1</v>
-      </c>
-      <c r="W5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13">
+        <v>1</v>
+      </c>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13">
@@ -1322,18 +1358,19 @@
       </c>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
-      <c r="AC5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13">
+        <v>1</v>
+      </c>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
-      <c r="AJ5" s="17"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="17"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1383,6 @@
       <c r="R6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="13"/>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
@@ -1356,17 +1392,18 @@
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="13"/>
-      <c r="AD6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13">
+        <v>1</v>
+      </c>
       <c r="AF6" s="13"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
-      <c r="AJ6" s="17"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="17"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +1419,6 @@
       <c r="S7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="13"/>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
@@ -1392,17 +1428,18 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
-      <c r="AD7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13">
+        <v>1</v>
+      </c>
       <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
-      <c r="AJ7" s="17"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="17"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1418,7 +1455,6 @@
       <c r="S8" s="1">
         <v>1</v>
       </c>
-      <c r="T8" s="13"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
@@ -1428,17 +1464,18 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
-      <c r="AD8" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13">
+        <v>1</v>
+      </c>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
-      <c r="AJ8" s="17"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="17"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
@@ -1448,7 +1485,6 @@
       <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
@@ -1459,16 +1495,17 @@
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
-      <c r="AE9" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13">
+        <v>1</v>
+      </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
-      <c r="AJ9" s="17"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="17"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
@@ -1484,10 +1521,9 @@
       <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="13">
-        <v>1</v>
-      </c>
-      <c r="U10" s="13"/>
+      <c r="U10" s="13">
+        <v>1</v>
+      </c>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -1502,9 +1538,10 @@
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
-      <c r="AJ10" s="17"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="17"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1514,7 +1551,6 @@
       <c r="M11" s="1">
         <v>1</v>
       </c>
-      <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
@@ -1526,17 +1562,18 @@
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
-      <c r="AF11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13">
+        <v>1</v>
+      </c>
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
-      <c r="AJ11" s="17"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="17"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1547,10 +1584,9 @@
       <c r="N12" s="1">
         <v>1</v>
       </c>
-      <c r="T12" s="13">
-        <v>1</v>
-      </c>
-      <c r="U12" s="13"/>
+      <c r="U12" s="13">
+        <v>1</v>
+      </c>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
@@ -1565,9 +1601,10 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="17"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="17"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
@@ -1577,10 +1614,9 @@
       <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="T13" s="13">
-        <v>1</v>
-      </c>
-      <c r="U13" s="13"/>
+      <c r="U13" s="13">
+        <v>1</v>
+      </c>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
@@ -1595,11 +1631,12 @@
       <c r="AG13" s="13"/>
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
-      <c r="AJ13" s="17"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="17"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1610,7 +1647,6 @@
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
@@ -1628,11 +1664,12 @@
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
-      <c r="AJ14" s="17"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="17"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1643,11 +1680,10 @@
       <c r="N15" s="1">
         <v>1</v>
       </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13">
-        <v>1</v>
-      </c>
-      <c r="V15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13">
+        <v>1</v>
+      </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -1661,9 +1697,10 @@
       <c r="AG15" s="13"/>
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
-      <c r="AJ15" s="17"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="17"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
@@ -1679,11 +1716,10 @@
       <c r="P16" s="1">
         <v>1</v>
       </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13">
-        <v>1</v>
-      </c>
-      <c r="V16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13">
+        <v>1</v>
+      </c>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -1697,9 +1733,10 @@
       <c r="AG16" s="13"/>
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
-      <c r="AJ16" s="17"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="17"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>27</v>
       </c>
@@ -1709,11 +1746,10 @@
       <c r="M17" s="1">
         <v>1</v>
       </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13">
-        <v>1</v>
-      </c>
-      <c r="V17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13">
+        <v>1</v>
+      </c>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -1729,11 +1765,12 @@
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
-      <c r="AJ17" s="17"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="17"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1750,7 +1787,6 @@
       <c r="R18" s="1">
         <v>1</v>
       </c>
-      <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
@@ -1758,21 +1794,22 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
-      <c r="AB18" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13">
+        <v>1</v>
+      </c>
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
       <c r="AF18" s="13"/>
-      <c r="AG18" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13">
+        <v>1</v>
+      </c>
       <c r="AI18" s="13"/>
-      <c r="AJ18" s="17"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="17"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +1822,6 @@
       <c r="R19" s="1">
         <v>1</v>
       </c>
-      <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
@@ -1793,19 +1829,20 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
-      <c r="AB19" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13">
+        <v>1</v>
+      </c>
       <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
       <c r="AF19" s="13"/>
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
-      <c r="AJ19" s="17"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="17"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>11</v>
       </c>
@@ -1821,7 +1858,6 @@
       <c r="S20" s="1">
         <v>1</v>
       </c>
-      <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
@@ -1829,21 +1865,22 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
-      <c r="AB20" s="13">
-        <v>1</v>
-      </c>
+      <c r="AB20" s="13"/>
       <c r="AC20" s="13">
         <v>1</v>
       </c>
-      <c r="AD20" s="13"/>
+      <c r="AD20" s="13">
+        <v>1</v>
+      </c>
       <c r="AE20" s="13"/>
       <c r="AF20" s="13"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
-      <c r="AJ20" s="17"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="17"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>12</v>
       </c>
@@ -1859,29 +1896,29 @@
       <c r="S21" s="1">
         <v>1</v>
       </c>
-      <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
-      <c r="AA21" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13">
+        <v>1</v>
+      </c>
       <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
-      <c r="AJ21" s="17"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="17"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>13</v>
       </c>
@@ -1894,17 +1931,16 @@
       <c r="Q22" s="1">
         <v>1</v>
       </c>
-      <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
-      <c r="AA22" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13">
+        <v>1</v>
+      </c>
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
@@ -1912,11 +1948,12 @@
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
-      <c r="AJ22" s="17"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="17"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1933,7 +1970,6 @@
       <c r="R23" s="1">
         <v>1</v>
       </c>
-      <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
@@ -1941,19 +1977,20 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
-      <c r="AB23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13">
+        <v>1</v>
+      </c>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
-      <c r="AJ23" s="17"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="17"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>10</v>
       </c>
@@ -1966,7 +2003,6 @@
       <c r="R24" s="1">
         <v>1</v>
       </c>
-      <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
@@ -1980,13 +2016,14 @@
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
-      <c r="AH24" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="17"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="17"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>11</v>
       </c>
@@ -2002,7 +2039,6 @@
       <c r="S25" s="1">
         <v>1</v>
       </c>
-      <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
@@ -2016,13 +2052,14 @@
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
-      <c r="AH25" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="17"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="17"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>12</v>
       </c>
@@ -2038,7 +2075,6 @@
       <c r="S26" s="1">
         <v>1</v>
       </c>
-      <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
@@ -2052,13 +2088,14 @@
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="13"/>
-      <c r="AH26" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="17"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="17"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>13</v>
       </c>
@@ -2071,7 +2108,6 @@
       <c r="Q27" s="1">
         <v>1</v>
       </c>
-      <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
@@ -2085,15 +2121,16 @@
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
-      <c r="AH27" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="17"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="17"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -2104,7 +2141,6 @@
       <c r="N28" s="1">
         <v>1</v>
       </c>
-      <c r="T28" s="13"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
@@ -2115,16 +2151,17 @@
       <c r="AB28" s="13"/>
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
-      <c r="AE28" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13">
+        <v>1</v>
+      </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
-      <c r="AJ28" s="17"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="17"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>26</v>
       </c>
@@ -2140,7 +2177,6 @@
       <c r="P29" s="1">
         <v>1</v>
       </c>
-      <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
@@ -2154,13 +2190,14 @@
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
-      <c r="AH29" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="17"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="17"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>27</v>
       </c>
@@ -2170,10 +2207,9 @@
       <c r="M30" s="1">
         <v>1</v>
       </c>
-      <c r="T30" s="13">
-        <v>1</v>
-      </c>
-      <c r="U30" s="13"/>
+      <c r="U30" s="13">
+        <v>1</v>
+      </c>
       <c r="V30" s="13"/>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
@@ -2188,11 +2224,12 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
-      <c r="AJ30" s="17"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="17"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2209,7 +2246,6 @@
       <c r="R31" s="1">
         <v>1</v>
       </c>
-      <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
       <c r="W31" s="13"/>
@@ -2217,23 +2253,24 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
-      <c r="AB31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13">
+        <v>1</v>
+      </c>
       <c r="AD31" s="13"/>
       <c r="AE31" s="13"/>
       <c r="AF31" s="13"/>
       <c r="AG31" s="13"/>
-      <c r="AH31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="17"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="17"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2244,7 +2281,6 @@
       <c r="N32" s="1">
         <v>1</v>
       </c>
-      <c r="T32" s="13"/>
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
@@ -2259,12 +2295,13 @@
       <c r="AF32" s="13"/>
       <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
-      <c r="AI32" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="17"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="17"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>22</v>
       </c>
@@ -2274,13 +2311,10 @@
       <c r="O33" s="1">
         <v>1</v>
       </c>
-      <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="13">
-        <v>1</v>
-      </c>
+      <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
@@ -2288,15 +2322,18 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
+      <c r="AF33" s="13">
+        <v>1</v>
+      </c>
       <c r="AG33" s="13"/>
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
-      <c r="AJ33" s="17"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="17"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="13">
         <v>1</v>
@@ -2307,13 +2344,10 @@
       <c r="N34" s="1">
         <v>1</v>
       </c>
-      <c r="T34" s="13"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
-      <c r="X34" s="13">
-        <v>1</v>
-      </c>
+      <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
@@ -2321,13 +2355,16 @@
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
       <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
+      <c r="AF34" s="13">
+        <v>1</v>
+      </c>
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
-      <c r="AJ34" s="17"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="17"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>27</v>
       </c>
@@ -2337,13 +2374,12 @@
       <c r="M35" s="1">
         <v>1</v>
       </c>
-      <c r="T35" s="13"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
-      <c r="W35" s="13">
-        <v>1</v>
-      </c>
-      <c r="X35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13">
+        <v>1</v>
+      </c>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
@@ -2355,11 +2391,12 @@
       <c r="AG35" s="13"/>
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
-      <c r="AJ35" s="17"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="17"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="13">
         <v>1</v>
@@ -2367,7 +2404,6 @@
       <c r="L36" s="1">
         <v>1</v>
       </c>
-      <c r="T36" s="18"/>
       <c r="U36" s="18"/>
       <c r="V36" s="18"/>
       <c r="W36" s="18"/>
@@ -2383,11 +2419,12 @@
       <c r="AG36" s="18"/>
       <c r="AH36" s="18"/>
       <c r="AI36" s="18"/>
-      <c r="AJ36" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -2406,17 +2443,14 @@
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
-      <c r="T37" s="12">
-        <f>COUNT(T3:T36)</f>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12">
+        <f>COUNT(U3:U36)</f>
         <v>5</v>
       </c>
-      <c r="U37" s="12">
-        <f t="shared" ref="U37:AJ37" si="0">COUNT(U3:U36)</f>
+      <c r="V37" s="12">
+        <f t="shared" ref="V37:AK37" si="0">COUNT(V3:V36)</f>
         <v>4</v>
-      </c>
-      <c r="V37" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="W37" s="12">
         <f t="shared" si="0"/>
@@ -2424,7 +2458,7 @@
       </c>
       <c r="X37" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="12">
         <f t="shared" si="0"/>
@@ -2434,17 +2468,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA37" s="12">
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB37" s="12">
+      <c r="AC37" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
-      </c>
-      <c r="AC37" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
       <c r="AD37" s="12">
         <f t="shared" si="0"/>
@@ -2452,11 +2483,11 @@
       </c>
       <c r="AE37" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF37" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG37" s="12">
         <f t="shared" si="0"/>
@@ -2464,21 +2495,25 @@
       </c>
       <c r="AH37" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI37" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AK37" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="T1:AJ1"/>
-    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="U1:AK1"/>
+    <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>

--- a/cpu_states.xlsx
+++ b/cpu_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wwcpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED832C-6C19-4BFE-A751-C7A22FD00834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE20554-C883-420F-A7B7-F8479FDD270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49DCB9A7-1EE1-4A25-9D11-06E7B318AF4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49DCB9A7-1EE1-4A25-9D11-06E7B318AF4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
   <si>
     <t>S0</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>DATA --&gt; MDR</t>
-  </si>
-  <si>
-    <t>Reset ACC</t>
   </si>
   <si>
     <t>ACC + SW --&gt; DATA</t>
@@ -250,9 +247,6 @@
 Disable RAM output</t>
   </si>
   <si>
-    <t>DATA --&gt; IR</t>
-  </si>
-  <si>
     <t>0101 1010</t>
   </si>
   <si>
@@ -272,9 +266,6 @@
   </si>
   <si>
     <t>MAR_SRC</t>
-  </si>
-  <si>
-    <t>ALU_SRC</t>
   </si>
   <si>
     <t>MAR_SRC = DATA</t>
@@ -285,6 +276,16 @@
   <si>
     <t>Enable RAM write
 MAR_SRC = PC</t>
+  </si>
+  <si>
+    <t>ACC_SRC</t>
+  </si>
+  <si>
+    <t>ACC_SRC = SW</t>
+  </si>
+  <si>
+    <t>DATA --&gt; IR
+ACC_SRC = DATA</t>
   </si>
 </sst>
 </file>
@@ -513,6 +514,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,9 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -852,25 +853,24 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,15 +907,15 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -930,9 +930,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -947,9 +947,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -964,9 +964,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -979,9 +979,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -996,9 +996,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -1009,9 +1009,9 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -1030,17 +1030,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1050,12 +1050,12 @@
         <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -1070,36 +1070,36 @@
         <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
@@ -1109,9 +1109,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -1119,9 +1119,9 @@
       <c r="F14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>35</v>
@@ -1143,33 +1143,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="37" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="37" ySplit="2" topLeftCell="AR6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
+      <selection pane="bottomRight" activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="13" customWidth="1"/>
-    <col min="3" max="19" width="4.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="5.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="5.6640625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="5.6640625" style="13" customWidth="1"/>
-    <col min="38" max="38" width="9.109375" style="16"/>
+    <col min="1" max="1" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="13" customWidth="1"/>
+    <col min="3" max="19" width="4.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="5.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="36" width="5.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="5.7109375" style="13" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1180,7 +1180,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -1192,104 +1192,104 @@
       <c r="R1" s="9"/>
       <c r="S1" s="10"/>
       <c r="T1" s="22"/>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="25"/>
+    </row>
+    <row r="2" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="24"/>
-    </row>
-    <row r="2" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="29"/>
       <c r="T2" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AK2" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="J3" s="1">
         <v>1</v>
@@ -1316,7 +1316,7 @@
       <c r="AJ3" s="13"/>
       <c r="AK3" s="17"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="I4" s="1">
         <v>1</v>
@@ -1341,7 +1341,7 @@
       <c r="AJ4" s="13"/>
       <c r="AK4" s="17"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="H5" s="1">
         <v>1</v>
@@ -1370,17 +1370,23 @@
       <c r="AJ5" s="13"/>
       <c r="AK5" s="17"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
         <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="1">
         <v>1</v>
       </c>
       <c r="U6" s="13"/>
@@ -1393,9 +1399,7 @@
       <c r="AB6" s="13"/>
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
-      <c r="AE6" s="13">
-        <v>1</v>
-      </c>
+      <c r="AE6" s="13"/>
       <c r="AF6" s="13"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
@@ -1403,9 +1407,9 @@
       <c r="AJ6" s="13"/>
       <c r="AK6" s="17"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1414,9 +1418,6 @@
         <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
         <v>1</v>
       </c>
       <c r="U7" s="13"/>
@@ -1439,9 +1440,9 @@
       <c r="AJ7" s="13"/>
       <c r="AK7" s="17"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1449,7 +1450,7 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>1</v>
       </c>
       <c r="S8" s="1">
@@ -1475,14 +1476,20 @@
       <c r="AJ8" s="13"/>
       <c r="AK8" s="17"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
         <v>1</v>
       </c>
       <c r="U9" s="13"/>
@@ -1495,35 +1502,27 @@
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13">
-        <v>1</v>
-      </c>
+      <c r="AE9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="17"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
       <c r="O10" s="1">
         <v>1</v>
       </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="U10" s="13">
-        <v>1</v>
-      </c>
+      <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -1534,24 +1533,37 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
+      <c r="AF10" s="13">
+        <v>1</v>
+      </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="17"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="U11" s="13"/>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="13">
+        <v>1</v>
+      </c>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
@@ -1563,30 +1575,23 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
-      <c r="AG11" s="13">
-        <v>1</v>
-      </c>
+      <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="17"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="U12" s="13">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
@@ -1598,20 +1603,25 @@
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
       <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
+      <c r="AG12" s="13">
+        <v>1</v>
+      </c>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="17"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="M13" s="1">
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
         <v>1</v>
       </c>
       <c r="U13" s="13">
@@ -1634,27 +1644,24 @@
       <c r="AJ13" s="13"/>
       <c r="AK13" s="17"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="U14" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="13">
+        <v>1</v>
+      </c>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
-      <c r="Z14" s="13">
-        <v>1</v>
-      </c>
+      <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="13"/>
@@ -1667,27 +1674,27 @@
       <c r="AJ14" s="13"/>
       <c r="AK14" s="17"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
       </c>
       <c r="U15" s="13"/>
-      <c r="V15" s="13">
-        <v>1</v>
-      </c>
+      <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
+      <c r="Z15" s="13">
+        <v>1</v>
+      </c>
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
@@ -1700,20 +1707,17 @@
       <c r="AJ15" s="13"/>
       <c r="AK15" s="17"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
       <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1">
         <v>1</v>
       </c>
       <c r="U16" s="13"/>
@@ -1736,14 +1740,23 @@
       <c r="AJ16" s="13"/>
       <c r="AK16" s="17"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
         <v>1</v>
       </c>
       <c r="U17" s="13"/>
@@ -1753,9 +1766,7 @@
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
-      <c r="Z17" s="13">
-        <v>1</v>
-      </c>
+      <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
@@ -1768,9 +1779,9 @@
       <c r="AJ17" s="13"/>
       <c r="AK17" s="17"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1778,42 +1789,39 @@
       <c r="M18" s="1">
         <v>1</v>
       </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1">
-        <v>1</v>
-      </c>
       <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
+      <c r="V18" s="13">
+        <v>1</v>
+      </c>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
+      <c r="Z18" s="13">
+        <v>1</v>
+      </c>
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
-      <c r="AC18" s="13">
-        <v>1</v>
-      </c>
+      <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
       <c r="AF18" s="13"/>
       <c r="AG18" s="13"/>
-      <c r="AH18" s="13">
-        <v>1</v>
-      </c>
+      <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="17"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
         <v>1</v>
       </c>
       <c r="P19" s="1">
@@ -1828,7 +1836,9 @@
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
+      <c r="AA19" s="13">
+        <v>1</v>
+      </c>
       <c r="AB19" s="13"/>
       <c r="AC19" s="13">
         <v>1</v>
@@ -1837,14 +1847,16 @@
       <c r="AE19" s="13"/>
       <c r="AF19" s="13"/>
       <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
+      <c r="AH19" s="13">
+        <v>1</v>
+      </c>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="17"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1853,9 +1865,6 @@
         <v>1</v>
       </c>
       <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1">
         <v>1</v>
       </c>
       <c r="U20" s="13"/>
@@ -1869,9 +1878,7 @@
       <c r="AC20" s="13">
         <v>1</v>
       </c>
-      <c r="AD20" s="13">
-        <v>1</v>
-      </c>
+      <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
       <c r="AF20" s="13"/>
       <c r="AG20" s="13"/>
@@ -1880,9 +1887,9 @@
       <c r="AJ20" s="13"/>
       <c r="AK20" s="17"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1890,7 +1897,7 @@
       <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>1</v>
       </c>
       <c r="S21" s="1">
@@ -1903,10 +1910,10 @@
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
-      <c r="AB21" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13">
+        <v>1</v>
+      </c>
       <c r="AD21" s="13">
         <v>1</v>
       </c>
@@ -1918,9 +1925,9 @@
       <c r="AJ21" s="13"/>
       <c r="AK21" s="17"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1929,6 +1936,9 @@
         <v>1</v>
       </c>
       <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
         <v>1</v>
       </c>
       <c r="U22" s="13"/>
@@ -1942,7 +1952,9 @@
         <v>1</v>
       </c>
       <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
+      <c r="AD22" s="13">
+        <v>1</v>
+      </c>
       <c r="AE22" s="13"/>
       <c r="AF22" s="13"/>
       <c r="AG22" s="13"/>
@@ -1951,23 +1963,17 @@
       <c r="AJ22" s="13"/>
       <c r="AK22" s="17"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
       <c r="P23" s="1">
         <v>1</v>
       </c>
-      <c r="R23" s="1">
+      <c r="Q23" s="1">
         <v>1</v>
       </c>
       <c r="U23" s="13"/>
@@ -1977,10 +1983,10 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13">
-        <v>1</v>
-      </c>
+      <c r="AB23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
@@ -1990,11 +1996,17 @@
       <c r="AJ23" s="13"/>
       <c r="AK23" s="17"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
         <v>1</v>
       </c>
       <c r="P24" s="1">
@@ -2009,34 +2021,33 @@
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
+      <c r="AA24" s="13">
+        <v>1</v>
+      </c>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
+      <c r="AC24" s="13">
+        <v>1</v>
+      </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
-      <c r="AI24" s="13">
-        <v>1</v>
-      </c>
+      <c r="AI24" s="13"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="17"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1</v>
-      </c>
-      <c r="R25" s="1">
-        <v>1</v>
-      </c>
-      <c r="S25" s="1">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
         <v>1</v>
       </c>
       <c r="U25" s="13"/>
@@ -2053,15 +2064,13 @@
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
-      <c r="AI25" s="13">
-        <v>1</v>
-      </c>
+      <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
       <c r="AK25" s="17"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -2069,10 +2078,7 @@
       <c r="P26" s="1">
         <v>1</v>
       </c>
-      <c r="Q26" s="1">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1">
+      <c r="R26" s="1">
         <v>1</v>
       </c>
       <c r="U26" s="13"/>
@@ -2095,9 +2101,9 @@
       <c r="AJ26" s="13"/>
       <c r="AK26" s="17"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -2105,7 +2111,10 @@
       <c r="P27" s="1">
         <v>1</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
         <v>1</v>
       </c>
       <c r="U27" s="13"/>
@@ -2128,17 +2137,20 @@
       <c r="AJ27" s="13"/>
       <c r="AK27" s="17"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1">
         <v>1</v>
       </c>
       <c r="U28" s="13"/>
@@ -2152,29 +2164,26 @@
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
-      <c r="AF28" s="13">
-        <v>1</v>
-      </c>
+      <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
       <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
+      <c r="AI28" s="13">
+        <v>1</v>
+      </c>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="17"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="N29" s="1">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1">
-        <v>1</v>
-      </c>
       <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
         <v>1</v>
       </c>
       <c r="U29" s="13"/>
@@ -2197,19 +2206,20 @@
       <c r="AJ29" s="13"/>
       <c r="AK29" s="17"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
-      <c r="U30" s="13">
-        <v>1</v>
-      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="13"/>
       <c r="V30" s="13"/>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
@@ -2220,21 +2230,23 @@
       <c r="AC30" s="13"/>
       <c r="AD30" s="13"/>
       <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
+      <c r="AF30" s="13">
+        <v>1</v>
+      </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="17"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>1</v>
       </c>
       <c r="O31" s="1">
@@ -2243,7 +2255,7 @@
       <c r="P31" s="1">
         <v>1</v>
       </c>
-      <c r="R31" s="1">
+      <c r="T31" s="1">
         <v>1</v>
       </c>
       <c r="U31" s="13"/>
@@ -2254,9 +2266,7 @@
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
-      <c r="AC31" s="13">
-        <v>1</v>
-      </c>
+      <c r="AC31" s="13"/>
       <c r="AD31" s="13"/>
       <c r="AE31" s="13"/>
       <c r="AF31" s="13"/>
@@ -2268,9 +2278,9 @@
       <c r="AJ31" s="13"/>
       <c r="AK31" s="17"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2278,10 +2288,12 @@
       <c r="M32" s="1">
         <v>1</v>
       </c>
-      <c r="N32" s="1">
-        <v>1</v>
-      </c>
-      <c r="U32" s="13"/>
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="13">
+        <v>1</v>
+      </c>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
@@ -2296,19 +2308,26 @@
       <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
-      <c r="AJ32" s="13">
-        <v>1</v>
-      </c>
+      <c r="AJ32" s="13"/>
       <c r="AK32" s="17"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="13">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
         <v>1</v>
       </c>
       <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1">
         <v>1</v>
       </c>
       <c r="U33" s="13"/>
@@ -2317,28 +2336,32 @@
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
+      <c r="AA33" s="13">
+        <v>1</v>
+      </c>
       <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
+      <c r="AC33" s="13">
+        <v>1</v>
+      </c>
       <c r="AD33" s="13"/>
       <c r="AE33" s="13"/>
-      <c r="AF33" s="13">
-        <v>1</v>
-      </c>
+      <c r="AF33" s="13"/>
       <c r="AG33" s="13"/>
       <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
+      <c r="AI33" s="13">
+        <v>1</v>
+      </c>
       <c r="AJ33" s="13"/>
       <c r="AK33" s="17"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="13">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
         <v>1</v>
       </c>
       <c r="N34" s="1">
@@ -2355,31 +2378,29 @@
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
       <c r="AE34" s="13"/>
-      <c r="AF34" s="13">
-        <v>1</v>
-      </c>
+      <c r="AF34" s="13"/>
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
+      <c r="AJ34" s="13">
+        <v>1</v>
+      </c>
       <c r="AK34" s="17"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B35" s="13">
         <v>1</v>
       </c>
-      <c r="M35" s="1">
+      <c r="O35" s="1">
         <v>1</v>
       </c>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
-      <c r="X35" s="13">
-        <v>1</v>
-      </c>
+      <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
@@ -2387,125 +2408,196 @@
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
       <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
+      <c r="AF35" s="13">
+        <v>1</v>
+      </c>
       <c r="AG35" s="13"/>
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
       <c r="AK35" s="17"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="17"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="17"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="13">
-        <v>1</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1</v>
-      </c>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12">
-        <f>COUNT(U3:U36)</f>
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12">
+        <f>COUNT(T3:T38)</f>
+        <v>6</v>
+      </c>
+      <c r="U39" s="12">
+        <f>COUNT(U3:U38)</f>
         <v>5</v>
       </c>
-      <c r="V37" s="12">
-        <f t="shared" ref="V37:AK37" si="0">COUNT(V3:V36)</f>
+      <c r="V39" s="12">
+        <f t="shared" ref="V39:AK39" si="0">COUNT(V3:V38)</f>
         <v>4</v>
       </c>
-      <c r="W37" s="12">
+      <c r="W39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X37" s="12">
+      <c r="X39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y37" s="12">
+      <c r="Y39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z37" s="12">
+      <c r="Z39" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12">
+      <c r="AA39" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB39" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC37" s="12">
+      <c r="AC39" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AD37" s="12">
+      <c r="AD39" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AE37" s="12">
+      <c r="AE39" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AF37" s="12">
+      <c r="AF39" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AG37" s="12">
+      <c r="AG39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AH37" s="12">
+      <c r="AH39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AI37" s="12">
+      <c r="AI39" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AJ37" s="12">
+      <c r="AJ39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AK37" s="12">
+      <c r="AK39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>

--- a/cpu_states.xlsx
+++ b/cpu_states.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wwcpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE20554-C883-420F-A7B7-F8479FDD270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C196E20-6873-4D17-84CC-7C687ECB483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49DCB9A7-1EE1-4A25-9D11-06E7B318AF4A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
   <si>
     <t>S0</t>
   </si>
@@ -60,16 +60,9 @@
     <t>PC --&gt; MAR</t>
   </si>
   <si>
-    <t>PC --&gt; MAR
-Enable RAM output</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
-    <t>Increment PC</t>
-  </si>
-  <si>
     <t>ADD</t>
   </si>
   <si>
@@ -127,13 +120,6 @@
     <t>DATA --&gt; MAR</t>
   </si>
   <si>
-    <t>Enable RAM output</t>
-  </si>
-  <si>
-    <t>Increment PC
-Enable RAM output</t>
-  </si>
-  <si>
     <t>S8</t>
   </si>
   <si>
@@ -161,9 +147,6 @@
     <t>DATA --&gt; MDR</t>
   </si>
   <si>
-    <t>ACC + SW --&gt; DATA</t>
-  </si>
-  <si>
     <t>0000 0000</t>
   </si>
   <si>
@@ -240,14 +223,6 @@
   </si>
   <si>
     <t>JZ</t>
-  </si>
-  <si>
-    <t>Increment PC
-ACC --&gt; DATA
-Disable RAM output</t>
-  </si>
-  <si>
-    <t>0101 1010</t>
   </si>
   <si>
     <t>0011 1000</t>
@@ -281,18 +256,92 @@
     <t>ACC_SRC</t>
   </si>
   <si>
-    <t>ACC_SRC = SW</t>
-  </si>
-  <si>
     <t>DATA --&gt; IR
 ACC_SRC = DATA</t>
+  </si>
+  <si>
+    <t>ACC = 0b000</t>
+  </si>
+  <si>
+    <t>ACC = 0b011</t>
+  </si>
+  <si>
+    <t>ACC = 0b010</t>
+  </si>
+  <si>
+    <t>ACC = 0b101</t>
+  </si>
+  <si>
+    <t>ACC = 0b100</t>
+  </si>
+  <si>
+    <t>0101 1001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PC --&gt; MAR
+Enable RAM output
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACC = 0b000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increment PC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACC = 0b001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Disable RAM output</t>
+    </r>
+  </si>
+  <si>
+    <t>Increment PC
+ACC = 0b000</t>
+  </si>
+  <si>
+    <t>Enable RAM output
+ACC = 0b000</t>
+  </si>
+  <si>
+    <t>Increment PC
+Enable RAM output
+ACC = 0b000</t>
+  </si>
+  <si>
+    <t>ACC_SRC = SW
+ACC = 0b001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +361,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -450,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,6 +579,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,6 +599,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -853,7 +927,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -890,13 +964,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -904,232 +978,245 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3"/>
+      <c r="H6" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
+      <c r="H8" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>29</v>
+      <c r="H9" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
+      <c r="H11" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" s="3"/>
-      <c r="H12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="H12" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="23"/>
       <c r="J12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3"/>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1236,7 @@
       <pane xSplit="37" ySplit="2" topLeftCell="AR6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z41" sqref="Z41"/>
+      <selection pane="bottomRight" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1267,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -1192,101 +1279,101 @@
       <c r="R1" s="9"/>
       <c r="S1" s="10"/>
       <c r="T1" s="22"/>
-      <c r="U1" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="25"/>
+      <c r="U1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="26"/>
     </row>
     <row r="2" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="21" t="s">
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -1372,7 +1459,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -1409,7 +1496,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1442,7 +1529,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1478,7 +1565,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1514,7 +1601,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1544,7 +1631,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1583,7 +1670,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1613,7 +1700,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1646,7 +1733,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1676,7 +1763,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1709,7 +1796,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1742,7 +1829,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1781,7 +1868,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1813,7 +1900,7 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1827,7 +1914,7 @@
       <c r="P19" s="1">
         <v>1</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>1</v>
       </c>
       <c r="U19" s="13"/>
@@ -1856,7 +1943,7 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1889,7 +1976,7 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1927,7 +2014,7 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1965,7 +2052,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1998,7 +2085,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -2012,7 +2099,7 @@
       <c r="P24" s="1">
         <v>1</v>
       </c>
-      <c r="R24" s="1">
+      <c r="S24" s="1">
         <v>1</v>
       </c>
       <c r="U24" s="13"/>
@@ -2039,7 +2126,7 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -2070,7 +2157,7 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -2103,7 +2190,7 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -2139,7 +2226,7 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -2175,7 +2262,7 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2208,7 +2295,7 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -2241,7 +2328,7 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2280,7 +2367,7 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2313,7 +2400,7 @@
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -2327,7 +2414,7 @@
       <c r="P33" s="1">
         <v>1</v>
       </c>
-      <c r="R33" s="1">
+      <c r="S33" s="1">
         <v>1</v>
       </c>
       <c r="U33" s="13"/>
@@ -2356,7 +2443,7 @@
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2389,7 +2476,7 @@
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="13">
         <v>1</v>
@@ -2419,7 +2506,7 @@
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B36" s="13">
         <v>1</v>
@@ -2452,7 +2539,7 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="13">
         <v>1</v>
@@ -2482,7 +2569,7 @@
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B38" s="13">
         <v>1</v>

--- a/cpu_states.xlsx
+++ b/cpu_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wwcpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C196E20-6873-4D17-84CC-7C687ECB483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B991142-908C-4743-98F1-4C935A7EBC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49DCB9A7-1EE1-4A25-9D11-06E7B318AF4A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49DCB9A7-1EE1-4A25-9D11-06E7B318AF4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
   <si>
     <t>S0</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>0100 0000</t>
-  </si>
-  <si>
-    <t>0110 0000</t>
   </si>
   <si>
     <t>ZF</t>
@@ -335,6 +332,12 @@
   <si>
     <t>ACC_SRC = SW
 ACC = 0b001</t>
+  </si>
+  <si>
+    <t>ACC = 0b001</t>
+  </si>
+  <si>
+    <t>0110 1001</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,6 +585,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,21 +612,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -924,302 +951,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1623EA-A651-44FE-B5F6-3CCC41DCF92C}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="34" t="str">
+        <f>_xlfn.CONCAT("0x",BIN2HEX(SUBSTITUTE(A3," ",""),2))</f>
+        <v>0x0A</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="34" t="str">
+        <f t="shared" ref="B4:B15" si="0">_xlfn.CONCAT("0x",BIN2HEX(SUBSTITUTE(A4," ",""),2))</f>
+        <v>0x0B</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0D</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0C</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="H6" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="3"/>
+      <c r="I6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="1" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="H8" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="I8" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x38</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x40</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="I11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="I12" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="H12" s="33" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x69</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="I13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x00</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x80</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="1" t="s">
+      <c r="G15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1267,7 +1353,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -1279,101 +1365,101 @@
       <c r="R1" s="9"/>
       <c r="S1" s="10"/>
       <c r="T1" s="22"/>
-      <c r="U1" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="26"/>
+      <c r="U1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="29"/>
     </row>
     <row r="2" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="20" t="s">
-        <v>67</v>
-      </c>
       <c r="U2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -1700,7 +1786,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1763,7 +1849,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1796,7 +1882,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2295,7 +2381,7 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -2506,7 +2592,7 @@
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="13">
         <v>1</v>

--- a/cpu_states.xlsx
+++ b/cpu_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wwcpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B991142-908C-4743-98F1-4C935A7EBC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E04CF-4D85-47BA-A271-98BFB3C09A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49DCB9A7-1EE1-4A25-9D11-06E7B318AF4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49DCB9A7-1EE1-4A25-9D11-06E7B318AF4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,22 +257,10 @@
 ACC_SRC = DATA</t>
   </si>
   <si>
-    <t>ACC = 0b000</t>
-  </si>
-  <si>
-    <t>ACC = 0b011</t>
-  </si>
-  <si>
-    <t>ACC = 0b010</t>
-  </si>
-  <si>
-    <t>ACC = 0b101</t>
-  </si>
-  <si>
-    <t>ACC = 0b100</t>
-  </si>
-  <si>
     <t>0101 1001</t>
+  </si>
+  <si>
+    <t>0110 1001</t>
   </si>
   <si>
     <r>
@@ -287,7 +275,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ACC = 0b000</t>
+      <t>ALU = 0b000</t>
     </r>
   </si>
   <si>
@@ -302,7 +290,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ACC = 0b001</t>
+      <t>ALU = 0b001</t>
     </r>
     <r>
       <rPr>
@@ -317,27 +305,39 @@
     </r>
   </si>
   <si>
+    <t>ALU = 0b010</t>
+  </si>
+  <si>
+    <t>ALU = 0b000</t>
+  </si>
+  <si>
+    <t>ALU = 0b011</t>
+  </si>
+  <si>
+    <t>ALU = 0b101</t>
+  </si>
+  <si>
+    <t>ALU = 0b100</t>
+  </si>
+  <si>
     <t>Increment PC
-ACC = 0b000</t>
+ALU = 0b000</t>
   </si>
   <si>
     <t>Enable RAM output
-ACC = 0b000</t>
+ALU = 0b000</t>
   </si>
   <si>
     <t>Increment PC
 Enable RAM output
-ACC = 0b000</t>
+ALU = 0b000</t>
   </si>
   <si>
     <t>ACC_SRC = SW
-ACC = 0b001</t>
-  </si>
-  <si>
-    <t>ACC = 0b001</t>
-  </si>
-  <si>
-    <t>0110 1001</t>
+ALU = 0b001</t>
+  </si>
+  <si>
+    <t>ALU = 0b001</t>
   </si>
 </sst>
 </file>
@@ -594,6 +594,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,9 +613,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,17 +620,7 @@
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -954,7 +944,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,13 +996,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I2" s="24"/>
     </row>
@@ -1020,7 +1010,7 @@
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="34" t="str">
+      <c r="B3" s="28" t="str">
         <f>_xlfn.CONCAT("0x",BIN2HEX(SUBSTITUTE(A3," ",""),2))</f>
         <v>0x0A</v>
       </c>
@@ -1031,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -1044,7 +1034,7 @@
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="34" t="str">
+      <c r="B4" s="28" t="str">
         <f t="shared" ref="B4:B15" si="0">_xlfn.CONCAT("0x",BIN2HEX(SUBSTITUTE(A4," ",""),2))</f>
         <v>0x0B</v>
       </c>
@@ -1055,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
@@ -1068,7 +1058,7 @@
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="34" t="str">
+      <c r="B5" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0x0D</v>
       </c>
@@ -1079,7 +1069,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -1092,7 +1082,7 @@
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="34" t="str">
+      <c r="B6" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0x0C</v>
       </c>
@@ -1101,7 +1091,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="I6" s="25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
@@ -1114,7 +1104,7 @@
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="34" t="str">
+      <c r="B7" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0x10</v>
       </c>
@@ -1126,7 +1116,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="1" t="s">
@@ -1137,7 +1127,7 @@
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="34" t="str">
+      <c r="B8" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0x20</v>
       </c>
@@ -1146,7 +1136,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="I8" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -1154,7 +1144,7 @@
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="34" t="str">
+      <c r="B9" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0x20</v>
       </c>
@@ -1166,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>21</v>
@@ -1179,7 +1169,7 @@
       <c r="A10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="34" t="str">
+      <c r="B10" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0x38</v>
       </c>
@@ -1193,7 +1183,7 @@
         <v>26</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>16</v>
@@ -1206,7 +1196,7 @@
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="34" t="str">
+      <c r="B11" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0x40</v>
       </c>
@@ -1220,7 +1210,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>67</v>
@@ -1234,9 +1224,9 @@
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="34" t="str">
+        <v>72</v>
+      </c>
+      <c r="B12" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0x59</v>
       </c>
@@ -1245,7 +1235,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="I12" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="1" t="s">
@@ -1254,9 +1244,9 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="34" t="str">
+        <v>73</v>
+      </c>
+      <c r="B13" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0x69</v>
       </c>
@@ -1265,7 +1255,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="I13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>32</v>
@@ -1275,7 +1265,7 @@
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="34" t="str">
+      <c r="B14" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0x00</v>
       </c>
@@ -1289,7 +1279,7 @@
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="34" t="str">
+      <c r="B15" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0x80</v>
       </c>
@@ -1304,7 +1294,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1365,52 +1355,52 @@
       <c r="R1" s="9"/>
       <c r="S1" s="10"/>
       <c r="T1" s="22"/>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="30"/>
     </row>
     <row r="2" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="34"/>
       <c r="T2" s="20" t="s">
         <v>66</v>
       </c>
@@ -1435,11 +1425,11 @@
       <c r="AA2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
       <c r="AE2" s="8" t="s">
         <v>52</v>
       </c>
